--- a/web/PirateCardsLayaGame/design/Config/Common/Level.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1A0FD0-DD3C-42A5-B7D0-C7A02CC386AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889B06C-DB87-4631-B54E-D7BABCC306DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>int</t>
   </si>
@@ -37,6 +37,46 @@
   </si>
   <si>
     <t>exp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机武器列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomWeaponList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201;1202;1203;1204</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomDecorateList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机饰品列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301;1302;1303;1304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1401;1402;1403;1404</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomConsumeList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机消耗品列表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,11 +239,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -468,65 +539,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
-    <col min="3" max="36" width="9" style="9"/>
-    <col min="37" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="31.6640625" style="9" customWidth="1"/>
+    <col min="6" max="38" width="9" style="9"/>
+    <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="10">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -558,17 +672,25 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="10">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -600,17 +722,25 @@
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
-    </row>
-    <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+    </row>
+    <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="10">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -642,17 +772,25 @@
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
-    </row>
-    <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+    </row>
+    <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="10">
         <v>10</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -684,25 +822,42 @@
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10">
         <v>10</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -734,17 +889,25 @@
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
-    </row>
-    <row r="11" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+    </row>
+    <row r="11" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10">
         <v>10</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -776,8 +939,10 @@
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
-    </row>
-    <row r="12" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+    </row>
+    <row r="12" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -818,8 +983,10 @@
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
-    </row>
-    <row r="13" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+    </row>
+    <row r="13" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -860,8 +1027,10 @@
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
-    </row>
-    <row r="14" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+    </row>
+    <row r="14" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -902,8 +1071,10 @@
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
-    </row>
-    <row r="15" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+    </row>
+    <row r="15" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -944,8 +1115,10 @@
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
-    </row>
-    <row r="16" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+    </row>
+    <row r="16" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -986,8 +1159,10 @@
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
-    </row>
-    <row r="17" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+    </row>
+    <row r="17" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -1028,8 +1203,10 @@
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
-    </row>
-    <row r="18" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+    </row>
+    <row r="18" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -1070,8 +1247,10 @@
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
-    </row>
-    <row r="19" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+    </row>
+    <row r="19" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -1112,8 +1291,10 @@
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
-    </row>
-    <row r="20" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+    </row>
+    <row r="20" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -1154,8 +1335,10 @@
       <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
-    </row>
-    <row r="21" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+    </row>
+    <row r="21" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>17</v>
       </c>
@@ -1196,8 +1379,10 @@
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
-    </row>
-    <row r="22" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+    </row>
+    <row r="22" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>18</v>
       </c>
@@ -1238,8 +1423,10 @@
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
-    </row>
-    <row r="23" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+    </row>
+    <row r="23" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>19</v>
       </c>
@@ -1280,8 +1467,10 @@
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
-    </row>
-    <row r="24" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+    </row>
+    <row r="24" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -1322,8 +1511,10 @@
       <c r="AH24" s="9"/>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
-    </row>
-    <row r="25" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+    </row>
+    <row r="25" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>21</v>
       </c>
@@ -1364,8 +1555,10 @@
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
-    </row>
-    <row r="26" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+    </row>
+    <row r="26" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -1406,8 +1599,10 @@
       <c r="AH26" s="9"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
-    </row>
-    <row r="27" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+    </row>
+    <row r="27" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>23</v>
       </c>
@@ -1448,8 +1643,10 @@
       <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
-    </row>
-    <row r="28" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+    </row>
+    <row r="28" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>24</v>
       </c>
@@ -1490,8 +1687,10 @@
       <c r="AH28" s="9"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
-    </row>
-    <row r="29" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+    </row>
+    <row r="29" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>25</v>
       </c>
@@ -1532,8 +1731,10 @@
       <c r="AH29" s="9"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9"/>
-    </row>
-    <row r="30" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+    </row>
+    <row r="30" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>26</v>
       </c>
@@ -1574,8 +1775,10 @@
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>27</v>
       </c>
@@ -1583,7 +1786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>28</v>
       </c>
@@ -1609,6 +1812,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="C5:C11">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(COUNTIF($A:$A,C5)&gt;1,$A5&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D11">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(COUNTIF($A:$A,D5)&gt;1,$A5&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(COUNTIF($A:$A,E5)&gt;1,$A5&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/web/PirateCardsLayaGame/design/Config/Common/Level.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889B06C-DB87-4631-B54E-D7BABCC306DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA33317-DBAD-4BCC-948A-D29AE6EC5A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
   <si>
     <t>int</t>
   </si>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1201;1202;1203;1204</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>randomDecorateList</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -64,19 +60,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1301;1302;1303;1304</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1401;1402;1403;1404</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>randomConsumeList</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>随机消耗品列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201;1202;1203;1204;1205;1206;1207;1208;1209;1210;1211;1212;1213</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301;1302;1303;1304;1305;1306;1307;1308</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1401;1402;1403;1404;1405;1406;1407;1408;1409;1410</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -542,17 +542,19 @@
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="31.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="55.77734375" style="9" customWidth="1"/>
     <col min="6" max="38" width="9" style="9"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
@@ -585,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -602,10 +604,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -630,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -680,16 +682,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -730,16 +732,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -780,16 +782,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -830,16 +832,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -850,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -897,16 +899,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -947,11 +949,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="10">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -991,11 +999,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="10">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1035,11 +1049,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="10">
-        <v>10</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1081,9 +1101,15 @@
       <c r="B15" s="11">
         <v>20</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1125,9 +1151,15 @@
       <c r="B16" s="11">
         <v>20</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1169,9 +1201,15 @@
       <c r="B17" s="11">
         <v>20</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1213,9 +1251,15 @@
       <c r="B18" s="11">
         <v>20</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1257,9 +1301,15 @@
       <c r="B19" s="11">
         <v>20</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1301,9 +1351,15 @@
       <c r="B20" s="11">
         <v>20</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1345,9 +1401,15 @@
       <c r="B21" s="11">
         <v>20</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1389,9 +1451,15 @@
       <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1433,9 +1501,15 @@
       <c r="B23" s="11">
         <v>20</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1477,9 +1551,15 @@
       <c r="B24" s="11">
         <v>20</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1521,9 +1601,15 @@
       <c r="B25" s="12">
         <v>30</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1565,9 +1651,15 @@
       <c r="B26" s="12">
         <v>30</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1609,9 +1701,15 @@
       <c r="B27" s="12">
         <v>30</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1653,9 +1751,15 @@
       <c r="B28" s="12">
         <v>30</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1697,9 +1801,15 @@
       <c r="B29" s="12">
         <v>30</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1741,9 +1851,15 @@
       <c r="B30" s="12">
         <v>30</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="C30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1785,6 +1901,15 @@
       <c r="B31" s="12">
         <v>30</v>
       </c>
+      <c r="C31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
@@ -1793,37 +1918,64 @@
       <c r="B32" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>29</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>30</v>
       </c>
       <c r="B34" s="12">
         <v>30</v>
       </c>
+      <c r="C34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C11">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="C5:C34">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(COUNTIF($A:$A,C5)&gt;1,$A5&lt;&gt;3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D11">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="D5:D34">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(COUNTIF($A:$A,D5)&gt;1,$A5&lt;&gt;3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E11">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="E5:E34">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(COUNTIF($A:$A,E5)&gt;1,$A5&lt;&gt;3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/web/PirateCardsLayaGame/design/Config/Common/Level.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nisakzhang\Desktop\小游戏\配置表\等级经验配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA33317-DBAD-4BCC-948A-D29AE6EC5A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875B188-9625-4866-A008-515A56401631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="14">
   <si>
     <t>int</t>
   </si>
@@ -68,15 +68,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1201;1202;1203;1204;1205;1206;1207;1208;1209;1210;1211;1212;1213</t>
+    <t>1207;1209;1211;1301;1303;1308;1401;1404;1407</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1301;1302;1303;1304;1305;1306;1307;1308</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1401;1402;1403;1404;1405;1406;1407;1408;1409;1410</t>
+    <t>1207;1208;1209;1210;1211;1212;1301;1303;1308;1401;1404;1407</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +242,182 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -542,24 +713,24 @@
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="76.88671875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="55.77734375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="63" style="9" customWidth="1"/>
+    <col min="5" max="5" width="57.75" style="9" customWidth="1"/>
     <col min="6" max="38" width="9" style="9"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -576,7 +747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,7 +764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -610,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -627,21 +798,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -677,21 +848,21 @@
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
     </row>
-    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="10">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -727,21 +898,21 @@
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
     </row>
-    <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="10">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -777,21 +948,21 @@
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
     </row>
-    <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="10">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -827,38 +998,38 @@
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="10">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -894,21 +1065,21 @@
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
     </row>
-    <row r="11" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -944,21 +1115,21 @@
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
     </row>
-    <row r="12" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="10">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -994,21 +1165,21 @@
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
     </row>
-    <row r="13" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="10">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1044,21 +1215,21 @@
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
     </row>
-    <row r="14" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="10">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1094,21 +1265,21 @@
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
     </row>
-    <row r="15" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="11">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1144,21 +1315,21 @@
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
     </row>
-    <row r="16" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="11">
-        <v>20</v>
+        <v>430</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1194,21 +1365,21 @@
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
     </row>
-    <row r="17" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="11">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1244,21 +1415,21 @@
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
     </row>
-    <row r="18" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18" s="11">
-        <v>20</v>
+        <v>570</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -1294,21 +1465,21 @@
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
     </row>
-    <row r="19" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>15</v>
       </c>
       <c r="B19" s="11">
-        <v>20</v>
+        <v>640</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1344,21 +1515,21 @@
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
     </row>
-    <row r="20" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>16</v>
       </c>
       <c r="B20" s="11">
-        <v>20</v>
+        <v>710</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1394,21 +1565,21 @@
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
     </row>
-    <row r="21" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21" s="11">
-        <v>20</v>
+        <v>790</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -1444,21 +1615,21 @@
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
     </row>
-    <row r="22" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>18</v>
       </c>
       <c r="B22" s="11">
-        <v>20</v>
+        <v>870</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1494,21 +1665,21 @@
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
     </row>
-    <row r="23" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>19</v>
       </c>
       <c r="B23" s="11">
-        <v>20</v>
+        <v>950</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -1544,21 +1715,21 @@
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
     </row>
-    <row r="24" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>20</v>
       </c>
       <c r="B24" s="11">
-        <v>20</v>
+        <v>1040</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -1594,21 +1765,21 @@
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
     </row>
-    <row r="25" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>21</v>
       </c>
       <c r="B25" s="12">
-        <v>30</v>
+        <v>1130</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -1644,21 +1815,21 @@
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
     </row>
-    <row r="26" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>22</v>
       </c>
       <c r="B26" s="12">
-        <v>30</v>
+        <v>1220</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -1694,21 +1865,21 @@
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
     </row>
-    <row r="27" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>23</v>
       </c>
       <c r="B27" s="12">
-        <v>30</v>
+        <v>1320</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -1744,21 +1915,21 @@
       <c r="AK27" s="9"/>
       <c r="AL27" s="9"/>
     </row>
-    <row r="28" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>24</v>
       </c>
       <c r="B28" s="12">
-        <v>30</v>
+        <v>1420</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -1794,21 +1965,21 @@
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
     </row>
-    <row r="29" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>25</v>
       </c>
       <c r="B29" s="12">
-        <v>30</v>
+        <v>1520</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -1844,21 +2015,21 @@
       <c r="AK29" s="9"/>
       <c r="AL29" s="9"/>
     </row>
-    <row r="30" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>26</v>
       </c>
       <c r="B30" s="12">
-        <v>30</v>
+        <v>1630</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -1894,89 +2065,199 @@
       <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>27</v>
       </c>
       <c r="B31" s="12">
-        <v>30</v>
+        <v>1740</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>28</v>
       </c>
       <c r="B32" s="12">
-        <v>30</v>
+        <v>1850</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>29</v>
       </c>
       <c r="B33" s="12">
-        <v>30</v>
+        <v>1960</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>30</v>
       </c>
       <c r="B34" s="12">
-        <v>30</v>
+        <v>2170</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C34">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>AND(COUNTIF($A:$A,C5)&gt;1,$A5&lt;&gt;3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D34">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="C9:C34">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>AND(COUNTIF($A:$A,C9)&gt;1,$A9&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>AND(COUNTIF($A:$A,C6)&gt;1,$A6&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>AND(COUNTIF($A:$A,C7)&gt;1,$A7&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>AND(COUNTIF($A:$A,C8)&gt;1,$A8&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>AND(COUNTIF($A:$A,D5)&gt;1,$A5&lt;&gt;3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E34">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>AND(COUNTIF($A:$A,D6)&gt;1,$A6&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(COUNTIF($A:$A,D7)&gt;1,$A7&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>AND(COUNTIF($A:$A,D8)&gt;1,$A8&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>AND(COUNTIF($A:$A,E5)&gt;1,$A5&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND(COUNTIF($A:$A,E7)&gt;1,$A7&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>AND(COUNTIF($A:$A,E6)&gt;1,$A6&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>AND(COUNTIF($A:$A,E8)&gt;1,$A8&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(COUNTIF($A:$A,D9)&gt;1,$A9&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>AND(COUNTIF($A:$A,E9)&gt;1,$A9&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>AND(COUNTIF($A:$A,E10)&gt;1,$A10&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>AND(COUNTIF($A:$A,D10)&gt;1,$A10&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>AND(COUNTIF($A:$A,D11)&gt;1,$A11&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>AND(COUNTIF($A:$A,D12)&gt;1,$A12&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(COUNTIF($A:$A,D13)&gt;1,$A13&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(COUNTIF($A:$A,E11)&gt;1,$A11&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(COUNTIF($A:$A,E12)&gt;1,$A12&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(COUNTIF($A:$A,E13)&gt;1,$A13&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D34">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(COUNTIF($A:$A,D14)&gt;1,$A14&lt;&gt;3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E34">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(COUNTIF($A:$A,E14)&gt;1,$A14&lt;&gt;3)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
